--- a/xlsx/全国广播公司_intext.xlsx
+++ b/xlsx/全国广播公司_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1160">
   <si>
     <t>全国广播公司</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9D%A2%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>地面電視</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_全国广播公司</t>
+    <t>地面电视</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_全国广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86%E8%81%94%E6%92%AD%E7%BD%91</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>廣告標語</t>
+    <t>广告标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/GE%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>GE大樓</t>
+    <t>GE大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/NBC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>NBC新聞</t>
+    <t>NBC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1080i</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E6%B8%85%E6%99%B0%E5%BA%A6%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>標準清晰度電視</t>
+    <t>标准清晰度电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%BA%BF%E7%94%B5%E5%8F%B0%E5%91%BC%E5%8F%B7</t>
@@ -155,43 +155,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E5%AA%92</t>
   </si>
   <si>
-    <t>傳媒</t>
+    <t>传媒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E7%92%B0%E7%90%83</t>
   </si>
   <si>
-    <t>NBC環球</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%84%A1%E7%B7%9A%E9%9B%BB%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美國無線電公司</t>
+    <t>美国无线电公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>通用電氣</t>
+    <t>通用电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -281,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E8%B2%BB%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>收費電視</t>
+    <t>收费电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD</t>
@@ -299,21 +290,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E7%95%B0%E9%9B%BB%E5%99%A8%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>奇異電器大樓</t>
+    <t>奇异电器大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%97%A0%E7%BA%BF%E7%94%B5%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美国无线电公司</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E7%94%B5%E6%B0%94</t>
   </si>
   <si>
-    <t>通用电气</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%8B</t>
   </si>
   <si>
@@ -323,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%B0%B4%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>聯合水果公司</t>
+    <t>联合水果公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E8%AF%9D%E7%94%B5%E6%8A%A5%E5%85%AC%E5%8F%B8</t>
@@ -341,13 +326,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>貝爾實驗室</t>
+    <t>贝尔实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8F%B0%E7%B6%B2</t>
   </si>
   <si>
-    <t>電台網</t>
+    <t>电台网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%B7%E5%B2%9B%E5%B7%9E</t>
@@ -401,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E6%B3%A2%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>短波廣播</t>
+    <t>短波广播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF</t>
@@ -539,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%C2%B7%E5%96%AC%E9%81%9C</t>
   </si>
   <si>
-    <t>艾爾·喬遜</t>
+    <t>艾尔·乔逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%8D%E5%8B%83%C2%B7%E9%9C%8D%E6%99%AE</t>
@@ -605,13 +590,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E7%88%BE%C2%B7%E5%B7%B4%E9%87%8C%E6%91%A9%E7%88%BE</t>
   </si>
   <si>
-    <t>埃塞爾·巴里摩爾</t>
+    <t>埃塞尔·巴里摩尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%96%AC%C2%B7%E9%A6%AC%E5%85%8B%E6%80%9D</t>
   </si>
   <si>
-    <t>格魯喬·馬克思</t>
+    <t>格鲁乔·马克思</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Monitor_(NBC_Radio)</t>
@@ -653,9 +638,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E5%AA%92</t>
   </si>
   <si>
-    <t>传媒</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/NBC_Sports_Radio</t>
   </si>
   <si>
@@ -665,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E6%B2%99%E8%AB%BE%E5%A4%AB</t>
   </si>
   <si>
-    <t>大衛·沙諾夫</t>
+    <t>大卫·沙诺夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86</t>
@@ -707,13 +689,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%BE%85%C2%B7%E6%B3%95%E6%81%A9%E6%96%AF%E6%B2%83%E6%96%AF</t>
   </si>
   <si>
-    <t>費羅·法恩斯沃斯</t>
+    <t>费罗·法恩斯沃斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E5%8D%9A%E6%9C%83</t>
   </si>
   <si>
-    <t>世博會</t>
+    <t>世博会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
@@ -731,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92</t>
   </si>
   <si>
-    <t>美國職棒</t>
+    <t>美国职棒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6%E9%81%93%E5%A5%87%E9%98%9F</t>
@@ -755,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>電視網</t>
+    <t>电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%85%8B%E5%86%85%E5%85%8B%E5%A1%94%E8%BF%AA_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -797,19 +779,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E%E8%B2%BB%E5%9F%8E%E4%BA%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>費城費城人隊</t>
+    <t>费城费城人队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E9%A9%97%E5%9C%96</t>
   </si>
   <si>
-    <t>檢驗圖</t>
+    <t>检验图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E8%B7%AF%E8%8F%AF_(%E6%89%8B%E9%8C%B6)</t>
   </si>
   <si>
-    <t>寶路華 (手錶)</t>
+    <t>宝路华 (手表)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -851,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界大賽</t>
+    <t>世界大赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BC%E8%89%BA</t>
@@ -875,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E5%A4%9C%E7%A7%80_(%E5%90%89%E7%B1%B3%C2%B7%E6%B3%95%E5%80%AB)</t>
   </si>
   <si>
-    <t>今夜秀 (吉米·法倫)</t>
+    <t>今夜秀 (吉米·法伦)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%AA%E5%BD%95%E7%89%87</t>
@@ -911,25 +893,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AC%B0</t>
   </si>
   <si>
-    <t>聖嬰</t>
+    <t>圣婴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E8%89%B2%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>彩色電視</t>
+    <t>彩色电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E5%83%8F%E6%A9%9F</t>
   </si>
   <si>
-    <t>攝像機</t>
+    <t>摄像机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CBS%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>CBS電視網</t>
+    <t>CBS电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/DuMont_Television_Network</t>
@@ -1001,13 +983,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%80%81%E5%8C%AF%E5%8A%87%E9%99%A2</t>
   </si>
   <si>
-    <t>百老匯劇院</t>
+    <t>百老汇剧院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%A0%B4%E7%9B%B4%E6%92%AD</t>
   </si>
   <si>
-    <t>現場直播</t>
+    <t>现场直播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%85%AC%E5%8F%B8</t>
@@ -1073,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E5%85%AD%E5%A4%9C%E7%8F%BE%E5%A0%B4</t>
   </si>
   <si>
-    <t>周六夜現場</t>
+    <t>周六夜现场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E5%89%A7%E5%B0%8F%E5%93%81</t>
@@ -1115,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A1%E6%A8%82%E9%85%92%E5%BA%97</t>
   </si>
   <si>
-    <t>歡樂酒店</t>
+    <t>欢乐酒店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B9%E9%9B%B3%E6%B8%B8%E4%BE%A0</t>
@@ -1127,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%BE%8D%E7%89%B9%E6%94%BB%E9%9A%8A</t>
   </si>
   <si>
-    <t>天龍特攻隊</t>
+    <t>天龙特攻队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E6%96%AF%E6%AF%94%E4%B8%80%E5%AE%B6</t>
@@ -1139,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E5%A5%B3%E9%83%8E</t>
   </si>
   <si>
-    <t>黃金女郎</t>
+    <t>黄金女郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E9%98%BF%E5%AF%86%E9%A3%8E%E4%BA%91</t>
@@ -1163,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E6%99%82%E6%AE%B5</t>
   </si>
   <si>
-    <t>黃金時段</t>
+    <t>黄金时段</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FCC</t>
@@ -1187,19 +1169,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A1%E6%A8%82%E4%B8%80%E5%AE%B6%E8%A6%AA</t>
   </si>
   <si>
-    <t>歡樂一家親</t>
+    <t>欢乐一家亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%9F%8E%E6%B3%95%E7%B6%B2</t>
   </si>
   <si>
-    <t>洛城法網</t>
+    <t>洛城法网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E</t>
   </si>
   <si>
-    <t>華盛頓州</t>
+    <t>华盛顿州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E6%97%A5%E6%8A%A5</t>
@@ -1223,25 +1205,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%95%99%E8%82%B2%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>國家教育研究院</t>
+    <t>国家教育研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>自由時報</t>
+    <t>自由时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%9A%E8%A8%8A%E7%A4%BE</t>
   </si>
   <si>
-    <t>中央通訊社</t>
+    <t>中央通讯社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE</t>
   </si>
   <si>
-    <t>首爾</t>
+    <t>首尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%97%B6%E6%8A%A5</t>
@@ -1283,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>洛杉磯時報</t>
+    <t>洛杉矶时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%B8%82</t>
@@ -1301,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%85%8B%C2%B7%E8%89%BE%E6%96%AF%E7%B4%8D</t>
   </si>
   <si>
-    <t>邁克·艾斯納</t>
+    <t>迈克·艾斯纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -1319,31 +1301,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美國廣播公司</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>國家廣播公司</t>
+    <t>国家广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>福斯廣播公司</t>
+    <t>福斯广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CW%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>CW電視網</t>
+    <t>CW电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/America_One</t>
@@ -1355,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/AMG%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>AMG電視網</t>
+    <t>AMG电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Channel_America</t>
@@ -1373,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E5%AD%90%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>離子電視網</t>
+    <t>离子电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/My_Family_TV</t>
@@ -1463,7 +1442,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%B3%B6%E9%9B%BB%E8%A6%96%E5%8F%B0%E8%8B%B1%E8%AA%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>半島電視台英語頻道</t>
+    <t>半岛电视台英语频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Local_AccuWeather_Channel</t>
@@ -1565,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%A3%A1%E9%83%8E%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>阿裡郎電視網</t>
+    <t>阿里郎电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Asia_Vision_(TV_network)</t>
@@ -1589,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E4%B9%8B%E8%81%B2</t>
   </si>
   <si>
-    <t>德國之聲</t>
+    <t>德国之声</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ImaginAsian</t>
@@ -1727,13 +1706,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%B4%BE%E6%8B%89%E8%92%99%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>聯合派拉蒙電視網</t>
+    <t>联合派拉蒙电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WB%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>WB電視網</t>
+    <t>WB电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/American_Independent_Network</t>
@@ -1757,7 +1736,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>第一電視網</t>
+    <t>第一电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NTA_Film_Network</t>
@@ -1889,7 +1868,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>有線電視</t>
+    <t>有线电视</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/America%27s_Store</t>
@@ -1907,13 +1886,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E5%AE%B6%E8%B3%BC%E7%89%A9%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>居家購物電視網</t>
+    <t>居家购物电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E7%92%B0%E7%90%83%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>NBC環球集團</t>
+    <t>NBC环球集团</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Steve_Burke_(businessman)</t>
@@ -1979,9 +1958,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%90%83%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>環球影業</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E5%B9%B4%E5%8D%8E%E7%94%B5%E5%BD%B1%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
@@ -1991,25 +1967,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E9%BB%9E%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>焦點影業</t>
+    <t>焦点影业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E7%92%B0%E7%90%83%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>NBC環球娛樂</t>
+    <t>NBC环球娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A7%E6%98%8E%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>照明娛樂</t>
+    <t>照明娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%9A%9B%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>聯合國際影業</t>
+    <t>联合国际影业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Working_Title_Films</t>
@@ -2021,19 +1997,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A2%E5%B7%A5%E5%A0%B4%E5%8B%95%E7%95%AB</t>
   </si>
   <si>
-    <t>夢工場動畫</t>
+    <t>梦工场动画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%90%83%E4%B8%BB%E9%A1%8C%E6%A8%82%E5%9C%92%E5%8F%8A%E5%BA%A6%E5%81%87%E6%9D%91</t>
   </si>
   <si>
-    <t>環球主題樂園及度假村</t>
+    <t>环球主题乐园及度假村</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2%E7%92%B0%E7%90%83%E5%BD%B1%E5%9F%8E</t>
   </si>
   <si>
-    <t>好萊塢環球影城</t>
+    <t>好莱坞环球影城</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Universal_CityWalk</t>
@@ -2045,31 +2021,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E5%A4%9A%E7%92%B0%E7%90%83%E5%BD%B1%E5%9F%8E</t>
   </si>
   <si>
-    <t>奧蘭多環球影城</t>
+    <t>奥兰多环球影城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E7%92%B0%E7%90%83%E5%BD%B1%E5%9F%8E</t>
   </si>
   <si>
-    <t>佛羅里達環球影城</t>
+    <t>佛罗里达环球影城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%92%E9%9A%AA%E5%B3%B6%E6%A8%82%E5%9C%92</t>
   </si>
   <si>
-    <t>冒險島樂園</t>
+    <t>冒险岛乐园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%92%B0%E7%90%83%E5%BD%B1%E5%9F%8E</t>
   </si>
   <si>
-    <t>日本環球影城</t>
+    <t>日本环球影城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E7%92%B0%E7%90%83%E5%BD%B1%E5%9F%8E</t>
   </si>
   <si>
-    <t>新加坡環球影城</t>
+    <t>新加坡环球影城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E7%8E%AF%E7%90%83%E5%BD%B1%E5%9F%8E</t>
@@ -2081,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E7%92%B0%E7%90%83%E5%BD%B1%E5%9F%8E</t>
   </si>
   <si>
-    <t>韓國環球影城</t>
+    <t>韩国环球影城</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NBCUniversal_Cable</t>
@@ -2129,19 +2105,19 @@
     <t>https://zh.wikipedia.org/wiki/USA%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>USA電視台</t>
+    <t>USA电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%90%83%E6%9C%89%E7%B7%9A%E8%A3%BD%E4%BD%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>環球有線製作公司</t>
+    <t>环球有线制作公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B2%BE%E5%BD%A9%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>美國精彩電視台</t>
+    <t>美国精彩电视台</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mun2</t>
@@ -2165,7 +2141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E8%B3%87%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>合資公司</t>
+    <t>合资公司</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PBS_Kids_Sprout</t>
@@ -2333,7 +2309,7 @@
     <t>https://zh.wikipedia.org/wiki/NBC%E9%AB%94%E8%82%B2%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>NBC體育集團</t>
+    <t>NBC体育集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B0%94%E5%A4%AB%E9%A2%91%E9%81%93</t>
@@ -2345,7 +2321,7 @@
     <t>https://zh.wikipedia.org/wiki/NBC%E9%AB%94%E8%82%B2%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>NBC體育電視網</t>
+    <t>NBC体育电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NHL_Network_(United_States)</t>
@@ -2465,13 +2441,13 @@
     <t>https://zh.wikipedia.org/wiki/CNBC%E4%BA%9E%E6%B4%B2%E5%8F%B0</t>
   </si>
   <si>
-    <t>CNBC亞洲台</t>
+    <t>CNBC亚洲台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNBC%E6%AD%90%E6%B4%B2%E5%8F%B0</t>
   </si>
   <si>
-    <t>CNBC歐洲台</t>
+    <t>CNBC欧洲台</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Class_CNBC</t>
@@ -2519,7 +2495,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%B6%93CNBC</t>
   </si>
   <si>
-    <t>日經CNBC</t>
+    <t>日经CNBC</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SBS-CNBC</t>
@@ -2585,7 +2561,7 @@
     <t>https://zh.wikipedia.org/wiki/Syfy_(%E4%BA%9E%E6%B4%B2)</t>
   </si>
   <si>
-    <t>Syfy (亞洲)</t>
+    <t>Syfy (亚洲)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/SF_Channel_(Australia)</t>
@@ -2675,7 +2651,7 @@
     <t>https://zh.wikipedia.org/wiki/Diva_(%E9%9B%BB%E8%A6%96%E7%B6%B2)</t>
   </si>
   <si>
-    <t>Diva (電視網)</t>
+    <t>Diva (电视网)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Diva_Universal_(Italy)</t>
@@ -2735,7 +2711,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%90%83%E5%BD%B1%E5%8A%87%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>環球影劇頻道</t>
+    <t>环球影剧频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Universal_Channel_(Australia)</t>
@@ -3005,13 +2981,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%9E%E5%BA%B7%E5%A7%86</t>
   </si>
   <si>
-    <t>維亞康姆</t>
+    <t>维亚康姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E6%8B%89%E8%92%99%E9%9B%BB%E5%BD%B1%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>派拉蒙電影公司</t>
+    <t>派拉蒙电影公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E9%9B%86%E5%9B%A2</t>
@@ -3077,7 +3053,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B2%E9%BB%9E_(%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>盲點 (電視劇)</t>
+    <t>盲点 (电视剧)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Brave_(TV_series)</t>
@@ -3107,7 +3083,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E9%86%AB%E6%83%85</t>
   </si>
   <si>
-    <t>芝加哥醫情</t>
+    <t>芝加哥医情</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%AD%A6%E7%BD%B2</t>
@@ -3119,7 +3095,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%95%8C%E7%B7%9A_(%E9%9B%BB%E8%A6%96)</t>
   </si>
   <si>
-    <t>日界線 (電視)</t>
+    <t>日界线 (电视)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/First_Dates_(U.S._TV_series)</t>
@@ -3137,7 +3113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E5%AA%BD%E5%AF%A6%E7%BF%92%E7%94%9F</t>
   </si>
   <si>
-    <t>老媽實習生</t>
+    <t>老妈实习生</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hollywood_Game_Night</t>
@@ -3227,7 +3203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%99%E5%B0%B1%E6%98%AF%E6%88%91%E5%80%91</t>
   </si>
   <si>
-    <t>這就是我們</t>
+    <t>这就是我们</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeless_(TV_series)</t>
@@ -3239,13 +3215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AF%E4%BA%82%E5%AF%A9%E5%88%A4</t>
   </si>
   <si>
-    <t>錯亂審判</t>
+    <t>错乱审判</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B9%8B%E8%81%B2</t>
   </si>
   <si>
-    <t>美國之聲</t>
+    <t>美国之声</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Wall_(U.S._game_show)</t>
@@ -3269,7 +3245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E5%80%91%E7%9A%84%E6%97%A5%E5%AD%90</t>
   </si>
   <si>
-    <t>我們的日子</t>
+    <t>我们的日子</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Last_Call_with_Carson_Daly</t>
@@ -3287,9 +3263,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B1%E5%85%AD%E5%A4%9C%E7%8F%BE%E5%A0%B4</t>
   </si>
   <si>
-    <t>週六夜現場</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Early_Today</t>
   </si>
   <si>
@@ -3299,13 +3272,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%87%E5%AA%92%E9%AB%94%E8%A6%8B%E9%9D%A2</t>
   </si>
   <si>
-    <t>與媒體見面</t>
+    <t>与媒体见面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>NBC體育</t>
+    <t>NBC体育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Golf_Channel_on_NBC</t>
@@ -3389,7 +3362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%B5%E6%87%B6%E9%8E%AE</t>
   </si>
   <si>
-    <t>慵懶鎮</t>
+    <t>慵懒镇</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Noodle_and_Doodle</t>
@@ -3425,7 +3398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%A0%E8%BB%8D%E5%A5%B6%E7%88%B8</t>
   </si>
   <si>
-    <t>冠軍奶爸</t>
+    <t>冠军奶爸</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ellen%27s_Game_of_Games</t>
@@ -3467,7 +3440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3485,7 +3458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3497,7 +3470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3515,7 +3488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CiNii</t>
@@ -4559,7 +4532,7 @@
         <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
         <v>46</v>
@@ -4614,10 +4587,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -4643,10 +4616,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -4672,10 +4645,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G28" t="n">
         <v>11</v>
@@ -4701,10 +4674,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -4730,10 +4703,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -4759,10 +4732,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G31" t="n">
         <v>4</v>
@@ -4788,10 +4761,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -4817,10 +4790,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -4846,10 +4819,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -4875,10 +4848,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G35" t="n">
         <v>37</v>
@@ -4904,10 +4877,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G36" t="n">
         <v>15</v>
@@ -4933,10 +4906,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G37" t="n">
         <v>11</v>
@@ -4962,10 +4935,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -4991,10 +4964,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -5020,10 +4993,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -5049,10 +5022,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -5078,10 +5051,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
@@ -5107,10 +5080,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -5136,10 +5109,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -5165,10 +5138,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -5194,10 +5167,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -5223,10 +5196,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -5252,10 +5225,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -5281,10 +5254,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -5310,10 +5283,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="G50" t="n">
         <v>7</v>
@@ -5339,10 +5312,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G51" t="n">
         <v>6</v>
@@ -5368,10 +5341,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -5397,10 +5370,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -5426,10 +5399,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G54" t="n">
         <v>8</v>
@@ -5455,10 +5428,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -5484,10 +5457,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -5513,10 +5486,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -5542,10 +5515,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -5571,10 +5544,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G59" t="n">
         <v>38</v>
@@ -5600,10 +5573,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -5629,10 +5602,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -5658,10 +5631,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -5687,10 +5660,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5716,10 +5689,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -5745,10 +5718,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5774,10 +5747,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5803,10 +5776,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -5832,10 +5805,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -5861,10 +5834,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5890,10 +5863,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -5919,10 +5892,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5948,10 +5921,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5977,10 +5950,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -6006,10 +5979,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -6035,10 +6008,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -6064,10 +6037,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -6093,10 +6066,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -6122,10 +6095,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -6151,10 +6124,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -6180,10 +6153,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -6209,10 +6182,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -6238,10 +6211,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -6267,10 +6240,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -6296,10 +6269,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -6325,10 +6298,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -6354,10 +6327,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -6383,10 +6356,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -6412,10 +6385,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6441,10 +6414,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6470,10 +6443,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6499,10 +6472,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6528,10 +6501,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>4</v>
@@ -6557,10 +6530,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>13</v>
@@ -6586,10 +6559,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6615,10 +6588,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -6644,10 +6617,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>10</v>
@@ -6673,10 +6646,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6702,10 +6675,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6731,10 +6704,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6760,10 +6733,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6789,10 +6762,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6818,10 +6791,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F102" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G102" t="n">
         <v>16</v>
@@ -6847,10 +6820,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6876,10 +6849,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6905,10 +6878,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>4</v>
@@ -6934,10 +6907,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>32</v>
@@ -6992,10 +6965,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -7021,10 +6994,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -7050,10 +7023,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -7079,10 +7052,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7108,10 +7081,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>139</v>
@@ -7137,10 +7110,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -7166,10 +7139,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7195,10 +7168,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7224,10 +7197,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7253,10 +7226,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -7282,10 +7255,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7311,10 +7284,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7340,10 +7313,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7369,10 +7342,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7398,10 +7371,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -7427,10 +7400,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -7456,10 +7429,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7485,10 +7458,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7514,10 +7487,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>25</v>
@@ -7543,10 +7516,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -7572,10 +7545,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7601,10 +7574,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>6</v>
@@ -7630,10 +7603,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7659,10 +7632,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>7</v>
@@ -7688,10 +7661,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7717,10 +7690,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7746,10 +7719,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7775,10 +7748,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -7804,10 +7777,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7833,10 +7806,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7862,10 +7835,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7891,10 +7864,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7920,10 +7893,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>10</v>
@@ -7949,10 +7922,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7978,10 +7951,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -8007,10 +7980,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>5</v>
@@ -8036,10 +8009,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -8065,10 +8038,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -8094,10 +8067,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -8123,10 +8096,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -8152,10 +8125,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>6</v>
@@ -8181,10 +8154,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8210,10 +8183,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>6</v>
@@ -8239,10 +8212,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8268,10 +8241,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -8297,10 +8270,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>19</v>
@@ -8326,10 +8299,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>5</v>
@@ -8355,10 +8328,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8384,10 +8357,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -8413,10 +8386,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8442,10 +8415,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8471,10 +8444,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>4</v>
@@ -8500,10 +8473,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8529,10 +8502,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8558,10 +8531,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -8587,10 +8560,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8616,10 +8589,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8645,10 +8618,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
@@ -8674,10 +8647,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8703,10 +8676,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8732,10 +8705,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -8761,10 +8734,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -8790,10 +8763,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8819,10 +8792,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8848,10 +8821,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8877,10 +8850,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8906,10 +8879,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8935,10 +8908,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8964,10 +8937,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8993,10 +8966,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9022,10 +8995,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9051,10 +9024,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -9080,10 +9053,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>3</v>
@@ -9109,10 +9082,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>6</v>
@@ -9138,10 +9111,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9196,10 +9169,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9225,10 +9198,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -9254,10 +9227,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9283,10 +9256,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9312,10 +9285,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9341,10 +9314,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9370,10 +9343,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9399,10 +9372,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9428,10 +9401,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9457,10 +9430,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9486,10 +9459,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9515,10 +9488,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>4</v>
@@ -9544,10 +9517,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>5</v>
@@ -9573,10 +9546,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9602,10 +9575,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>4</v>
@@ -9631,10 +9604,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9660,10 +9633,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9689,10 +9662,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9718,10 +9691,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9747,10 +9720,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9776,10 +9749,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9805,10 +9778,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9834,10 +9807,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9863,10 +9836,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9892,10 +9865,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9921,10 +9894,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>5</v>
@@ -9950,10 +9923,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9979,10 +9952,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -10008,10 +9981,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -10037,10 +10010,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10066,10 +10039,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>4</v>
@@ -10095,10 +10068,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -10124,10 +10097,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -10153,10 +10126,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -10182,10 +10155,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -10211,10 +10184,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -10240,10 +10213,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10269,10 +10242,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G221" t="n">
         <v>100</v>
@@ -10327,10 +10300,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F223" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G223" t="n">
         <v>85</v>
@@ -10356,10 +10329,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>147</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10385,10 +10358,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G225" t="n">
         <v>10</v>
@@ -10414,10 +10387,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10443,10 +10416,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10472,10 +10445,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10501,10 +10474,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10530,10 +10503,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10559,10 +10532,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -10588,10 +10561,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10617,10 +10590,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10646,10 +10619,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10675,10 +10648,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10704,10 +10677,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10733,10 +10706,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F237" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -10762,10 +10735,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F238" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10791,10 +10764,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10820,10 +10793,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10849,10 +10822,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10878,10 +10851,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10907,10 +10880,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10936,10 +10909,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10965,10 +10938,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10994,10 +10967,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11023,10 +10996,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11052,10 +11025,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11081,10 +11054,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11110,10 +11083,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11139,10 +11112,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11168,10 +11141,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11197,10 +11170,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11226,10 +11199,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11255,10 +11228,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11284,10 +11257,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11313,10 +11286,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11342,10 +11315,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -11371,10 +11344,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -11400,10 +11373,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11429,10 +11402,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F261" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11458,10 +11431,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G262" t="n">
         <v>3</v>
@@ -11487,10 +11460,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G263" t="n">
         <v>4</v>
@@ -11516,10 +11489,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11545,10 +11518,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11574,10 +11547,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11603,10 +11576,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11632,10 +11605,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11661,10 +11634,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F269" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11690,10 +11663,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F270" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11719,10 +11692,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F271" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -11748,10 +11721,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F272" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11777,10 +11750,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F273" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11806,10 +11779,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F274" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11835,10 +11808,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F275" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11864,10 +11837,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F276" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11893,10 +11866,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F277" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -11922,10 +11895,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F278" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11951,10 +11924,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F279" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -11980,10 +11953,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F280" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -12009,10 +11982,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F281" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -12038,10 +12011,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F282" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12067,10 +12040,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F283" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -12096,10 +12069,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F284" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12125,10 +12098,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F285" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -12154,10 +12127,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F286" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12183,10 +12156,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F287" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -12212,10 +12185,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F288" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12241,10 +12214,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F289" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -12270,10 +12243,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F290" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12299,10 +12272,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F291" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12328,10 +12301,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F292" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12357,10 +12330,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F293" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12386,10 +12359,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F294" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12415,10 +12388,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F295" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12444,10 +12417,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F296" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -12473,10 +12446,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F297" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12502,10 +12475,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F298" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12531,10 +12504,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F299" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -12560,10 +12533,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F300" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12589,10 +12562,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F301" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12618,10 +12591,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F302" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12647,10 +12620,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F303" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12676,10 +12649,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F304" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12705,10 +12678,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F305" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12734,10 +12707,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F306" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12763,10 +12736,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F307" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12792,10 +12765,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F308" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12821,10 +12794,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F309" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12850,10 +12823,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F310" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12879,10 +12852,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F311" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G311" t="n">
         <v>3</v>
@@ -12908,10 +12881,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F312" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12937,10 +12910,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F313" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12966,10 +12939,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F314" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12995,10 +12968,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F315" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13024,10 +12997,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F316" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13053,10 +13026,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F317" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -13082,10 +13055,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F318" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13111,10 +13084,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F319" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -13140,10 +13113,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F320" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13169,10 +13142,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13198,10 +13171,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F322" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13227,10 +13200,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F323" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -13256,10 +13229,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F324" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13285,10 +13258,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F325" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13314,10 +13287,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F326" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13343,10 +13316,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F327" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -13372,10 +13345,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F328" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -13401,10 +13374,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F329" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -13430,10 +13403,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F330" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -13459,10 +13432,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F331" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -13488,10 +13461,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F332" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13517,10 +13490,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F333" t="s">
-        <v>654</v>
+        <v>332</v>
       </c>
       <c r="G333" t="n">
         <v>3</v>
@@ -13546,10 +13519,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F334" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13575,10 +13548,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F335" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13604,10 +13577,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F336" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13633,10 +13606,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F337" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13662,10 +13635,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F338" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13691,10 +13664,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F339" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13720,10 +13693,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F340" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13749,13 +13722,13 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F341" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -13778,10 +13751,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F342" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13807,10 +13780,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F343" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -13836,10 +13809,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F344" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13865,10 +13838,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F345" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13894,10 +13867,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F346" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13923,10 +13896,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F347" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13952,10 +13925,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F348" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13981,10 +13954,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F349" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14010,10 +13983,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F350" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14039,10 +14012,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F351" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14068,10 +14041,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F352" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -14097,10 +14070,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F353" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -14126,10 +14099,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F354" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G354" t="n">
         <v>4</v>
@@ -14155,10 +14128,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F355" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14184,10 +14157,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F356" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G356" t="n">
         <v>21</v>
@@ -14213,10 +14186,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F357" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -14242,10 +14215,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F358" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14271,10 +14244,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F359" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14300,10 +14273,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F360" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14329,10 +14302,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="F361" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -14358,10 +14331,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="F362" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14387,10 +14360,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F363" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G363" t="n">
         <v>4</v>
@@ -14416,10 +14389,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F364" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14445,10 +14418,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F365" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -14474,10 +14447,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F366" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14503,10 +14476,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F367" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="G367" t="n">
         <v>5</v>
@@ -14532,10 +14505,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F368" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14561,10 +14534,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F369" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -14590,10 +14563,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="F370" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -14619,10 +14592,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F371" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -14648,10 +14621,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F372" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -14677,10 +14650,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F373" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -14706,10 +14679,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F374" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -14735,10 +14708,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F375" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -14764,10 +14737,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F376" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -14793,10 +14766,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F377" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -14822,10 +14795,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F378" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -14851,10 +14824,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F379" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -14880,10 +14853,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F380" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -14909,10 +14882,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F381" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -14938,10 +14911,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F382" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -14967,10 +14940,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F383" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -14996,10 +14969,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F384" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -15025,10 +14998,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F385" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -15054,10 +15027,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F386" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -15083,10 +15056,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F387" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -15112,10 +15085,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F388" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15141,10 +15114,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F389" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15170,10 +15143,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="F390" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -15199,10 +15172,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="F391" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -15228,10 +15201,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="F392" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15257,10 +15230,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="F393" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15286,10 +15259,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F394" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15315,10 +15288,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F395" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15344,10 +15317,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="F396" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -15373,10 +15346,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="F397" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="G397" t="n">
         <v>9</v>
@@ -15402,10 +15375,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F398" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15431,10 +15404,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F399" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15460,10 +15433,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F400" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15489,10 +15462,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F401" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15518,10 +15491,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="F402" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15547,10 +15520,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F403" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15576,10 +15549,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F404" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15605,10 +15578,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F405" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15634,10 +15607,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F406" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15663,10 +15636,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F407" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15692,10 +15665,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="F408" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -15721,10 +15694,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="F409" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15750,10 +15723,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F410" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15808,10 +15781,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="F412" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -15837,10 +15810,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="F413" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -15866,10 +15839,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="F414" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -15895,10 +15868,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F415" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15924,10 +15897,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F416" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15953,10 +15926,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="F417" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="G417" t="n">
         <v>4</v>
@@ -15982,10 +15955,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="F418" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
@@ -16011,10 +15984,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="F419" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="G419" t="n">
         <v>2</v>
@@ -16040,10 +16013,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F420" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -16069,10 +16042,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="F421" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16098,10 +16071,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="F422" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -16127,10 +16100,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="F423" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="G423" t="n">
         <v>2</v>
@@ -16156,10 +16129,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F424" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16185,10 +16158,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="F425" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16214,10 +16187,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F426" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16243,10 +16216,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="F427" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16272,10 +16245,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F428" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16301,10 +16274,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="F429" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16330,10 +16303,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="F430" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16359,10 +16332,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="F431" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16388,10 +16361,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="F432" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="G432" t="n">
         <v>5</v>
@@ -16417,10 +16390,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="F433" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16446,10 +16419,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="F434" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16475,10 +16448,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="F435" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16504,10 +16477,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F436" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16533,10 +16506,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F437" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16562,10 +16535,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="F438" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16591,10 +16564,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="F439" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="G439" t="n">
         <v>12</v>
@@ -16620,10 +16593,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="F440" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="G440" t="n">
         <v>8</v>
@@ -16649,10 +16622,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="F441" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -16678,10 +16651,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="F442" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="G442" t="n">
         <v>2</v>
@@ -16707,10 +16680,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="F443" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -16736,10 +16709,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="F444" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="G444" t="n">
         <v>2</v>
@@ -16765,10 +16738,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="F445" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="G445" t="n">
         <v>2</v>
@@ -16794,10 +16767,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="F446" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="G446" t="n">
         <v>2</v>
@@ -16823,10 +16796,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="F447" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="G447" t="n">
         <v>2</v>
@@ -16852,10 +16825,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="F448" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="G448" t="n">
         <v>2</v>
@@ -16881,10 +16854,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="F449" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -16910,10 +16883,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="F450" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="G450" t="n">
         <v>3</v>
@@ -16939,10 +16912,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="F451" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="G451" t="n">
         <v>2</v>
@@ -16968,10 +16941,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="F452" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="G452" t="n">
         <v>2</v>
@@ -16997,10 +16970,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="F453" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="G453" t="n">
         <v>2</v>
@@ -17026,10 +16999,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="F454" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="G454" t="n">
         <v>2</v>
@@ -17055,10 +17028,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="F455" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="G455" t="n">
         <v>6</v>
@@ -17084,10 +17057,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="F456" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17113,10 +17086,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="F457" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17142,10 +17115,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="F458" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17171,10 +17144,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="F459" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="G459" t="n">
         <v>2</v>
@@ -17200,10 +17173,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="F460" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="G460" t="n">
         <v>2</v>
@@ -17229,10 +17202,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="F461" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="G461" t="n">
         <v>5</v>
@@ -17258,10 +17231,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="F462" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17287,10 +17260,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F463" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17316,10 +17289,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="F464" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17345,10 +17318,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="F465" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17374,10 +17347,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="F466" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17403,10 +17376,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="F467" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17432,10 +17405,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="F468" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17461,10 +17434,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="F469" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17490,10 +17463,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="F470" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17519,10 +17492,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="F471" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17548,10 +17521,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="F472" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17577,10 +17550,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="F473" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17606,10 +17579,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="F474" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17635,10 +17608,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="F475" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17664,10 +17637,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="F476" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17693,10 +17666,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="F477" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17722,10 +17695,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="F478" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="G478" t="n">
         <v>314</v>
@@ -17751,10 +17724,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="F479" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17780,10 +17753,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="F480" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17809,10 +17782,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="F481" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17838,10 +17811,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="F482" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="G482" t="n">
         <v>2</v>
@@ -17867,10 +17840,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="F483" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="G483" t="n">
         <v>2</v>
@@ -17896,10 +17869,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="F484" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="G484" t="n">
         <v>2</v>
@@ -17925,10 +17898,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="F485" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="G485" t="n">
         <v>2</v>
@@ -17954,10 +17927,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="F486" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G486" t="n">
         <v>2</v>
@@ -17983,10 +17956,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F487" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G487" t="n">
         <v>2</v>
@@ -18012,10 +17985,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="F488" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="G488" t="n">
         <v>2</v>
@@ -18041,10 +18014,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="F489" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="G489" t="n">
         <v>3</v>
@@ -18070,10 +18043,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="F490" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="G490" t="n">
         <v>3</v>
@@ -18099,10 +18072,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="F491" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="G491" t="n">
         <v>2</v>
@@ -18128,10 +18101,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="F492" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="G492" t="n">
         <v>2</v>
@@ -18157,10 +18130,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F493" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="G493" t="n">
         <v>2</v>
@@ -18186,10 +18159,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="F494" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="G494" t="n">
         <v>2</v>
@@ -18215,10 +18188,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="F495" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="G495" t="n">
         <v>2</v>
@@ -18244,10 +18217,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="F496" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="G496" t="n">
         <v>2</v>
@@ -18273,10 +18246,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="F497" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -18302,10 +18275,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="F498" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -18331,10 +18304,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="F499" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="G499" t="n">
         <v>2</v>
@@ -18360,10 +18333,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="F500" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18389,10 +18362,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F501" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18418,10 +18391,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="F502" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="G502" t="n">
         <v>2</v>
@@ -18447,10 +18420,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="F503" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18476,10 +18449,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="F504" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="G504" t="n">
         <v>2</v>
@@ -18505,10 +18478,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="F505" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18534,10 +18507,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="F506" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18563,10 +18536,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="F507" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18592,10 +18565,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="F508" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18621,10 +18594,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="F509" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18650,10 +18623,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F510" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="G510" t="n">
         <v>2</v>
@@ -18679,10 +18652,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="F511" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18708,10 +18681,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="F512" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18737,10 +18710,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="F513" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="G513" t="n">
         <v>2</v>
@@ -18766,10 +18739,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="F514" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18795,10 +18768,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="F515" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18824,10 +18797,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="F516" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18853,10 +18826,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="F517" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18882,10 +18855,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="F518" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18911,10 +18884,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="F519" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18940,10 +18913,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="F520" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18969,10 +18942,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="F521" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18998,10 +18971,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="F522" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19027,10 +19000,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="F523" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19056,10 +19029,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="F524" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19085,10 +19058,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="F525" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19114,10 +19087,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="F526" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19143,10 +19116,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="F527" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19172,10 +19145,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="F528" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19201,10 +19174,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="F529" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19230,10 +19203,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="F530" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="G530" t="n">
         <v>2</v>
@@ -19259,10 +19232,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="F531" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19288,10 +19261,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="F532" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19317,10 +19290,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="F533" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19346,10 +19319,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="F534" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19375,10 +19348,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="F535" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19404,10 +19377,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="F536" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19433,10 +19406,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="F537" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="G537" t="n">
         <v>2</v>
@@ -19462,10 +19435,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="F538" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19491,10 +19464,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="F539" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19520,10 +19493,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="F540" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19549,10 +19522,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="F541" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19578,10 +19551,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="F542" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19607,10 +19580,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="F543" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19636,10 +19609,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="F544" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19665,10 +19638,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="F545" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19694,10 +19667,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="F546" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19723,10 +19696,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="F547" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19752,10 +19725,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="F548" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19781,10 +19754,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="F549" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19810,10 +19783,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="F550" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19839,10 +19812,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="F551" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19868,10 +19841,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="F552" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19897,10 +19870,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F553" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19926,10 +19899,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="F554" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19955,10 +19928,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="F555" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19984,10 +19957,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="F556" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20013,10 +19986,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="F557" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20042,10 +20015,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="F558" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20071,10 +20044,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="F559" t="s">
-        <v>1090</v>
+        <v>346</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20100,10 +20073,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="F560" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20129,10 +20102,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="F561" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20158,10 +20131,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="F562" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="G562" t="n">
         <v>8</v>
@@ -20187,10 +20160,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="F563" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20216,10 +20189,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="F564" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="G564" t="n">
         <v>2</v>
@@ -20245,10 +20218,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="F565" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="G565" t="n">
         <v>2</v>
@@ -20274,10 +20247,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="F566" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20303,10 +20276,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="F567" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20332,10 +20305,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="F568" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="G568" t="n">
         <v>2</v>
@@ -20361,10 +20334,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="F569" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20390,10 +20363,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="F570" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20419,10 +20392,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="F571" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20448,10 +20421,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="F572" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20477,10 +20450,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="F573" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20506,10 +20479,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="F574" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="G574" t="n">
         <v>2</v>
@@ -20535,10 +20508,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="F575" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20564,10 +20537,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="F576" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20593,10 +20566,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="F577" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20622,10 +20595,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="F578" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20651,10 +20624,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="F579" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20680,10 +20653,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="F580" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20709,10 +20682,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="F581" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20738,10 +20711,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="F582" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20767,10 +20740,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="F583" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20796,10 +20769,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="F584" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20825,10 +20798,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="F585" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20854,10 +20827,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="F586" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20883,10 +20856,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="F587" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20912,10 +20885,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="F588" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20941,10 +20914,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="F589" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="G589" t="n">
         <v>3</v>
@@ -20970,10 +20943,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="F590" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -20999,10 +20972,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="F591" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21028,10 +21001,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="F592" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21057,10 +21030,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="F593" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21086,10 +21059,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="F594" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21115,10 +21088,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="F595" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21144,10 +21117,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="F596" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21173,10 +21146,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="F597" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21202,10 +21175,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="F598" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
